--- a/Code/Results/Cases/Case_0_138/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_138/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.644219334060519</v>
+        <v>11.37935798576697</v>
       </c>
       <c r="D2">
-        <v>5.240990497515079</v>
+        <v>7.411053396066094</v>
       </c>
       <c r="E2">
-        <v>5.631279737304469</v>
+        <v>11.3040552221086</v>
       </c>
       <c r="F2">
-        <v>47.98445452444189</v>
+        <v>41.36510220724429</v>
       </c>
       <c r="G2">
-        <v>77.02939934970561</v>
+        <v>59.94814049838629</v>
       </c>
       <c r="H2">
-        <v>19.41181063713184</v>
+        <v>20.80522777188292</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.034908316119183</v>
+        <v>8.220975979374128</v>
       </c>
       <c r="M2">
-        <v>39.22979718853932</v>
+        <v>29.95001582830196</v>
       </c>
       <c r="N2">
-        <v>17.51224575226983</v>
+        <v>17.0579469673359</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.583424113088622</v>
+        <v>11.43552242938932</v>
       </c>
       <c r="D3">
-        <v>5.041177624312009</v>
+        <v>7.427622296517418</v>
       </c>
       <c r="E3">
-        <v>5.845875030486102</v>
+        <v>11.36945326088068</v>
       </c>
       <c r="F3">
-        <v>44.68654081816882</v>
+        <v>40.77208391134781</v>
       </c>
       <c r="G3">
-        <v>71.45433218270161</v>
+        <v>58.74362003227039</v>
       </c>
       <c r="H3">
-        <v>18.28474919266812</v>
+        <v>20.69163462128778</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.04777244047261</v>
+        <v>8.233131206538529</v>
       </c>
       <c r="M3">
-        <v>36.43263805050276</v>
+        <v>29.11728923742223</v>
       </c>
       <c r="N3">
-        <v>16.88895366212173</v>
+        <v>16.87438744843757</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.560618107463302</v>
+        <v>11.47308690606094</v>
       </c>
       <c r="D4">
-        <v>4.928862772299515</v>
+        <v>7.44024619031098</v>
       </c>
       <c r="E4">
-        <v>5.97856135529458</v>
+        <v>11.41138837102974</v>
       </c>
       <c r="F4">
-        <v>42.64694231921485</v>
+        <v>40.42137160076845</v>
       </c>
       <c r="G4">
-        <v>67.98469160943212</v>
+        <v>58.01958400657601</v>
       </c>
       <c r="H4">
-        <v>17.59819569954598</v>
+        <v>20.62907484195075</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.056563001308292</v>
+        <v>8.241205883930579</v>
       </c>
       <c r="M4">
-        <v>34.63209711494275</v>
+        <v>28.59824295286601</v>
       </c>
       <c r="N4">
-        <v>16.4990486253609</v>
+        <v>16.76299461469746</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.554644448275479</v>
+        <v>11.48916393077421</v>
       </c>
       <c r="D5">
-        <v>4.885522542776354</v>
+        <v>7.446000449481871</v>
       </c>
       <c r="E5">
-        <v>6.032960895454631</v>
+        <v>11.42892709687017</v>
       </c>
       <c r="F5">
-        <v>41.81000620552756</v>
+        <v>40.28198847418093</v>
       </c>
       <c r="G5">
-        <v>66.55649624515509</v>
+        <v>57.72887320278308</v>
       </c>
       <c r="H5">
-        <v>17.31968040246089</v>
+        <v>20.6053974851434</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.060376682115573</v>
+        <v>8.244650616712297</v>
       </c>
       <c r="M5">
-        <v>33.87684972315436</v>
+        <v>28.38508346869886</v>
       </c>
       <c r="N5">
-        <v>16.33854648611781</v>
+        <v>16.7179780484048</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.553843742338274</v>
+        <v>11.49187981825253</v>
       </c>
       <c r="D6">
-        <v>4.878467678694946</v>
+        <v>7.446992590660664</v>
       </c>
       <c r="E6">
-        <v>6.042016342015734</v>
+        <v>11.43186661935711</v>
       </c>
       <c r="F6">
-        <v>41.6706786255666</v>
+        <v>40.25906213378909</v>
       </c>
       <c r="G6">
-        <v>66.31846439712984</v>
+        <v>57.68087544861616</v>
       </c>
       <c r="H6">
-        <v>17.27350826378404</v>
+        <v>20.60157577648938</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.0610241102002</v>
+        <v>8.24523194249573</v>
       </c>
       <c r="M6">
-        <v>33.75012549795753</v>
+        <v>28.3495984653523</v>
       </c>
       <c r="N6">
-        <v>16.31180409142027</v>
+        <v>16.71052720154735</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.560524525348437</v>
+        <v>11.47330061866043</v>
       </c>
       <c r="D7">
-        <v>4.9282686614745</v>
+        <v>7.440321333124284</v>
       </c>
       <c r="E7">
-        <v>5.979293556780467</v>
+        <v>11.41162308026629</v>
       </c>
       <c r="F7">
-        <v>42.6356788284153</v>
+        <v>40.41947730779496</v>
       </c>
       <c r="G7">
-        <v>67.96548921993887</v>
+        <v>58.01564524344451</v>
       </c>
       <c r="H7">
-        <v>17.5944345024204</v>
+        <v>20.62874815726554</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.056613488059341</v>
+        <v>8.241251715619519</v>
       </c>
       <c r="M7">
-        <v>34.62199945202666</v>
+        <v>28.5953744498604</v>
       </c>
       <c r="N7">
-        <v>16.49689028735985</v>
+        <v>16.76238591809111</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.620036486348152</v>
+        <v>11.39808127849035</v>
       </c>
       <c r="D8">
-        <v>5.169829216617612</v>
+        <v>7.416254016165416</v>
       </c>
       <c r="E8">
-        <v>5.705142669046123</v>
+        <v>11.3262362184176</v>
       </c>
       <c r="F8">
-        <v>46.84430761823431</v>
+        <v>41.15794926421987</v>
       </c>
       <c r="G8">
-        <v>75.11054533201221</v>
+        <v>59.52985605004546</v>
       </c>
       <c r="H8">
-        <v>19.02195643679127</v>
+        <v>20.76457563476161</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.039163406919191</v>
+        <v>8.22504053305787</v>
       </c>
       <c r="M8">
-        <v>38.28217628271869</v>
+        <v>29.66467698008979</v>
       </c>
       <c r="N8">
-        <v>17.29894045046461</v>
+        <v>16.99441112344212</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.868154108852945</v>
+        <v>11.27524237836686</v>
       </c>
       <c r="D9">
-        <v>5.735175839841418</v>
+        <v>7.388775602445202</v>
       </c>
       <c r="E9">
-        <v>5.169693845978189</v>
+        <v>11.17282170791407</v>
       </c>
       <c r="F9">
-        <v>55.39073137469301</v>
+        <v>42.7047843048516</v>
       </c>
       <c r="G9">
-        <v>88.95963566123997</v>
+        <v>62.60342879943907</v>
       </c>
       <c r="H9">
-        <v>22.19549976726936</v>
+        <v>21.08740957886812</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.011632053485927</v>
+        <v>8.198077980852789</v>
       </c>
       <c r="M9">
-        <v>44.8341749153689</v>
+        <v>31.68767647639156</v>
       </c>
       <c r="N9">
-        <v>18.80721932071689</v>
+        <v>17.45777380137307</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.155597314786739</v>
+        <v>11.20035619703844</v>
       </c>
       <c r="D10">
-        <v>6.36733979114469</v>
+        <v>7.380970609362561</v>
       </c>
       <c r="E10">
-        <v>4.768723811487689</v>
+        <v>11.06852073899712</v>
       </c>
       <c r="F10">
-        <v>61.66156501541523</v>
+        <v>43.89073325593697</v>
       </c>
       <c r="G10">
-        <v>99.08287110717669</v>
+        <v>64.89967585878045</v>
       </c>
       <c r="H10">
-        <v>24.69777016267737</v>
+        <v>21.35808615779806</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.994809186128435</v>
+        <v>8.18118006266927</v>
       </c>
       <c r="M10">
-        <v>49.32499569571776</v>
+        <v>33.11372186092327</v>
       </c>
       <c r="N10">
-        <v>19.86800072483959</v>
+        <v>17.80054858503573</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.315840427131602</v>
+        <v>11.1696969832157</v>
       </c>
       <c r="D11">
-        <v>6.707537976684684</v>
+        <v>7.380182280073917</v>
       </c>
       <c r="E11">
-        <v>4.582015568557805</v>
+        <v>11.0228678970385</v>
       </c>
       <c r="F11">
-        <v>64.53969228831453</v>
+        <v>44.4386643487431</v>
       </c>
       <c r="G11">
-        <v>103.7355483740235</v>
+        <v>65.94735690621984</v>
       </c>
       <c r="H11">
-        <v>25.8494170574636</v>
+        <v>21.48823577356381</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.987693965725573</v>
+        <v>8.174118170771855</v>
       </c>
       <c r="M11">
-        <v>51.31574182031822</v>
+        <v>33.74658417836842</v>
       </c>
       <c r="N11">
-        <v>20.33915525801097</v>
+        <v>17.95641638953925</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.381452022813338</v>
+        <v>11.15858320719366</v>
       </c>
       <c r="D12">
-        <v>6.838221341641793</v>
+        <v>7.380286590078088</v>
       </c>
       <c r="E12">
-        <v>4.510400255473058</v>
+        <v>11.00583599460683</v>
       </c>
       <c r="F12">
-        <v>65.63777589081978</v>
+        <v>44.6471693777734</v>
       </c>
       <c r="G12">
-        <v>105.5117198382348</v>
+        <v>66.34411907801265</v>
       </c>
       <c r="H12">
-        <v>26.28928529346212</v>
+        <v>21.53850315236689</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.985054605243197</v>
+        <v>8.171533344157647</v>
       </c>
       <c r="M12">
-        <v>52.06413291093494</v>
+        <v>33.98374746715153</v>
       </c>
       <c r="N12">
-        <v>20.51587220530956</v>
+        <v>18.015383087099</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.367089296905534</v>
+        <v>11.16095458744504</v>
       </c>
       <c r="D13">
-        <v>6.809980025501049</v>
+        <v>7.380246122028986</v>
       </c>
       <c r="E13">
-        <v>4.525870050042555</v>
+        <v>11.00949277567637</v>
       </c>
       <c r="F13">
-        <v>65.40083052946943</v>
+        <v>44.60222204979298</v>
       </c>
       <c r="G13">
-        <v>105.1284071967767</v>
+        <v>66.25867445089727</v>
       </c>
       <c r="H13">
-        <v>26.19434816003765</v>
+        <v>21.52763392113001</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.985621009658727</v>
+        <v>8.172086066942493</v>
       </c>
       <c r="M13">
-        <v>51.90315711527996</v>
+        <v>33.93278386463302</v>
       </c>
       <c r="N13">
-        <v>20.47788924218291</v>
+        <v>18.00268684624352</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.321134965776088</v>
+        <v>11.16877266505207</v>
       </c>
       <c r="D14">
-        <v>6.718247298712482</v>
+        <v>7.380182757016339</v>
       </c>
       <c r="E14">
-        <v>4.576144000480168</v>
+        <v>11.02146155726288</v>
       </c>
       <c r="F14">
-        <v>64.62983655983822</v>
+        <v>44.45579895646335</v>
       </c>
       <c r="G14">
-        <v>103.8813366815888</v>
+        <v>65.98000053362021</v>
       </c>
       <c r="H14">
-        <v>25.88551702487156</v>
+        <v>21.49235176975694</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.987475869673951</v>
+        <v>8.173903727669998</v>
       </c>
       <c r="M14">
-        <v>51.37740794696361</v>
+        <v>33.76614672860651</v>
       </c>
       <c r="N14">
-        <v>20.35372815365304</v>
+        <v>17.96126903062496</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.293652028549694</v>
+        <v>11.17362627244343</v>
       </c>
       <c r="D15">
-        <v>6.662325003189216</v>
+        <v>7.38019656758244</v>
       </c>
       <c r="E15">
-        <v>4.60680927871225</v>
+        <v>11.02882603470634</v>
       </c>
       <c r="F15">
-        <v>64.15880844741665</v>
+        <v>44.36623699274169</v>
       </c>
       <c r="G15">
-        <v>103.1195965395913</v>
+        <v>65.80929628168326</v>
       </c>
       <c r="H15">
-        <v>25.69690461983437</v>
+        <v>21.47086756175356</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.988618430686496</v>
+        <v>8.175028718850182</v>
       </c>
       <c r="M15">
-        <v>51.05473120471793</v>
+        <v>33.66374682948024</v>
       </c>
       <c r="N15">
-        <v>20.27745337704932</v>
+        <v>17.93589058183993</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.145773986193417</v>
+        <v>11.20242893963608</v>
       </c>
       <c r="D16">
-        <v>6.345323851607118</v>
+        <v>7.381078198425432</v>
       </c>
       <c r="E16">
-        <v>4.78081560320652</v>
+        <v>11.07154017862658</v>
       </c>
       <c r="F16">
-        <v>61.47434063124334</v>
+        <v>43.85507748313351</v>
       </c>
       <c r="G16">
-        <v>98.78034919839304</v>
+        <v>64.83123372738342</v>
       </c>
       <c r="H16">
-        <v>24.62292025098907</v>
+        <v>21.34971956694471</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.995283220276759</v>
+        <v>8.181654106963322</v>
       </c>
       <c r="M16">
-        <v>49.19400723073452</v>
+        <v>33.07202555136449</v>
       </c>
       <c r="N16">
-        <v>19.83697448350278</v>
+        <v>17.79035687007953</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.063053433078746</v>
+        <v>11.22097547155113</v>
       </c>
       <c r="D17">
-        <v>6.153346532495697</v>
+        <v>7.382330605024216</v>
       </c>
       <c r="E17">
-        <v>4.8862740528434</v>
+        <v>11.09820192264313</v>
       </c>
       <c r="F17">
-        <v>59.83682889286155</v>
+        <v>43.54351720130379</v>
       </c>
       <c r="G17">
-        <v>96.13514058865513</v>
+        <v>64.23171586640323</v>
       </c>
       <c r="H17">
-        <v>23.96861899560504</v>
+        <v>21.27717839652876</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.999495359044221</v>
+        <v>8.185878288473159</v>
       </c>
       <c r="M17">
-        <v>48.04042946279223</v>
+        <v>32.70480876049022</v>
       </c>
       <c r="N17">
-        <v>19.56378325080126</v>
+        <v>17.70102617902899</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.018201428711511</v>
+        <v>11.23196323461273</v>
       </c>
       <c r="D18">
-        <v>6.043630273643817</v>
+        <v>7.383310626769458</v>
       </c>
       <c r="E18">
-        <v>4.946547109066795</v>
+        <v>11.11370606088363</v>
       </c>
       <c r="F18">
-        <v>58.89703326609712</v>
+        <v>43.36512185459198</v>
       </c>
       <c r="G18">
-        <v>94.61760080557868</v>
+        <v>63.88720539774423</v>
       </c>
       <c r="H18">
-        <v>23.5933993952292</v>
+        <v>21.23611690089419</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.001970282358869</v>
+        <v>8.188366790768132</v>
       </c>
       <c r="M18">
-        <v>47.37186306527092</v>
+        <v>32.49211437406295</v>
       </c>
       <c r="N18">
-        <v>19.4055796084481</v>
+        <v>17.64964249827717</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.003464932243705</v>
+        <v>11.23573832222688</v>
       </c>
       <c r="D19">
-        <v>6.006585181152808</v>
+        <v>7.383686868098563</v>
       </c>
       <c r="E19">
-        <v>4.966896362316019</v>
+        <v>11.11898458866517</v>
       </c>
       <c r="F19">
-        <v>58.57907247596012</v>
+        <v>43.30486472925415</v>
       </c>
       <c r="G19">
-        <v>94.10427001075291</v>
+        <v>63.77062747442373</v>
       </c>
       <c r="H19">
-        <v>23.46650147473314</v>
+        <v>21.22232869939103</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.002817808185232</v>
+        <v>8.189219480838226</v>
       </c>
       <c r="M19">
-        <v>47.144576218746</v>
+        <v>32.41985202489531</v>
       </c>
       <c r="N19">
-        <v>19.35183288371094</v>
+        <v>17.63224582901911</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.071572451610264</v>
+        <v>11.21896796769746</v>
       </c>
       <c r="D20">
-        <v>6.173705588098653</v>
+        <v>7.382170367672735</v>
       </c>
       <c r="E20">
-        <v>4.875089436720844</v>
+        <v>11.09534625840392</v>
       </c>
       <c r="F20">
-        <v>60.0109035432406</v>
+        <v>43.57660135928571</v>
       </c>
       <c r="G20">
-        <v>96.41627588924084</v>
+        <v>64.29550591955892</v>
       </c>
       <c r="H20">
-        <v>24.03814337263196</v>
+        <v>21.2848321708701</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.999041709803282</v>
+        <v>8.185422528638579</v>
       </c>
       <c r="M20">
-        <v>48.16374047149397</v>
+        <v>32.74405446575027</v>
       </c>
       <c r="N20">
-        <v>19.59297632327382</v>
+        <v>17.71053624899562</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.334492719276131</v>
+        <v>11.16646278858275</v>
       </c>
       <c r="D21">
-        <v>6.745134261772338</v>
+        <v>7.380190392486736</v>
       </c>
       <c r="E21">
-        <v>4.561404841559007</v>
+        <v>11.0179391099356</v>
       </c>
       <c r="F21">
-        <v>64.85602994456232</v>
+        <v>44.49878097392759</v>
       </c>
       <c r="G21">
-        <v>104.2471713343327</v>
+        <v>66.06185629436338</v>
       </c>
       <c r="H21">
-        <v>25.97610821669549</v>
+        <v>21.5026885499364</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.986929765647999</v>
+        <v>8.173367415679314</v>
       </c>
       <c r="M21">
-        <v>51.53196207765976</v>
+        <v>33.81516117720754</v>
       </c>
       <c r="N21">
-        <v>20.39024371276217</v>
+        <v>17.97343637382503</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.535522608686921</v>
+        <v>11.13504287230498</v>
       </c>
       <c r="D22">
-        <v>7.129936814612887</v>
+        <v>7.381246809657621</v>
       </c>
       <c r="E22">
-        <v>4.350871914184929</v>
+        <v>10.96883926730091</v>
       </c>
       <c r="F22">
-        <v>68.07372164399955</v>
+        <v>45.10730770008772</v>
       </c>
       <c r="G22">
-        <v>109.4539741734644</v>
+        <v>67.21625239987461</v>
       </c>
       <c r="H22">
-        <v>27.26598498220588</v>
+        <v>21.65078342203869</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.979319659101939</v>
+        <v>8.166009306518974</v>
       </c>
       <c r="M22">
-        <v>53.70291109180385</v>
+        <v>34.50060711889392</v>
       </c>
       <c r="N22">
-        <v>20.90139504503114</v>
+        <v>18.14490269235032</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.425282663460822</v>
+        <v>11.15154524660717</v>
       </c>
       <c r="D23">
-        <v>6.923225354780016</v>
+        <v>7.380466121469123</v>
       </c>
       <c r="E23">
-        <v>4.46386218879584</v>
+        <v>10.99490914293767</v>
       </c>
       <c r="F23">
-        <v>66.34977368107667</v>
+        <v>44.78205678331028</v>
       </c>
       <c r="G23">
-        <v>106.6636991067722</v>
+        <v>66.60026403031542</v>
       </c>
       <c r="H23">
-        <v>26.57463418802586</v>
+        <v>21.57122900429423</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.983362324285071</v>
+        <v>8.169889006686059</v>
       </c>
       <c r="M23">
-        <v>52.54616327224272</v>
+        <v>34.13616984170072</v>
       </c>
       <c r="N23">
-        <v>20.62950237469238</v>
+        <v>18.05343590806848</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.067712627247756</v>
+        <v>11.21987454800521</v>
       </c>
       <c r="D24">
-        <v>6.164499271461973</v>
+        <v>7.382242001578162</v>
       </c>
       <c r="E24">
-        <v>4.880147090755405</v>
+        <v>11.09663675600897</v>
       </c>
       <c r="F24">
-        <v>59.93219963189848</v>
+        <v>43.56164173880772</v>
       </c>
       <c r="G24">
-        <v>96.28916509937807</v>
+        <v>64.26666590513173</v>
       </c>
       <c r="H24">
-        <v>24.00670858262724</v>
+        <v>21.28136989348891</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.999246636978909</v>
+        <v>8.185628390845487</v>
       </c>
       <c r="M24">
-        <v>48.10800840189535</v>
+        <v>32.72631637701831</v>
       </c>
       <c r="N24">
-        <v>19.57978168850152</v>
+        <v>17.70623682454879</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.784553497594367</v>
+        <v>11.30579959966355</v>
       </c>
       <c r="D25">
-        <v>5.570952405407713</v>
+        <v>7.394060050458531</v>
       </c>
       <c r="E25">
-        <v>5.31512672621455</v>
+        <v>11.21283690495735</v>
       </c>
       <c r="F25">
-        <v>53.08077260013915</v>
+        <v>42.27684458667463</v>
       </c>
       <c r="G25">
-        <v>85.23555317050359</v>
+        <v>61.76344240946423</v>
       </c>
       <c r="H25">
-        <v>21.27642959486973</v>
+        <v>20.99411338191643</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.01842507004543</v>
+        <v>8.204858489139632</v>
       </c>
       <c r="M25">
-        <v>43.12337519975512</v>
+        <v>31.1499627952207</v>
       </c>
       <c r="N25">
-        <v>18.40702665353291</v>
+        <v>17.33181221798671</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_138/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_138/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11.37935798576697</v>
+        <v>6.644219334060492</v>
       </c>
       <c r="D2">
-        <v>7.411053396066094</v>
+        <v>5.240990497515114</v>
       </c>
       <c r="E2">
-        <v>11.3040552221086</v>
+        <v>5.6312797373044</v>
       </c>
       <c r="F2">
-        <v>41.36510220724429</v>
+        <v>47.98445452444183</v>
       </c>
       <c r="G2">
-        <v>59.94814049838629</v>
+        <v>77.02939934970547</v>
       </c>
       <c r="H2">
-        <v>20.80522777188292</v>
+        <v>19.41181063713185</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.220975979374128</v>
+        <v>5.034908316119117</v>
       </c>
       <c r="M2">
-        <v>29.95001582830196</v>
+        <v>39.22979718853927</v>
       </c>
       <c r="N2">
-        <v>17.0579469673359</v>
+        <v>17.51224575226983</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.43552242938932</v>
+        <v>6.583424113088634</v>
       </c>
       <c r="D3">
-        <v>7.427622296517418</v>
+        <v>5.041177624311969</v>
       </c>
       <c r="E3">
-        <v>11.36945326088068</v>
+        <v>5.845875030486168</v>
       </c>
       <c r="F3">
-        <v>40.77208391134781</v>
+        <v>44.68654081816882</v>
       </c>
       <c r="G3">
-        <v>58.74362003227039</v>
+        <v>71.45433218270168</v>
       </c>
       <c r="H3">
-        <v>20.69163462128778</v>
+        <v>18.28474919266811</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.233131206538529</v>
+        <v>5.047772440472701</v>
       </c>
       <c r="M3">
-        <v>29.11728923742223</v>
+        <v>36.4326380505028</v>
       </c>
       <c r="N3">
-        <v>16.87438744843757</v>
+        <v>16.8889536621217</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.47308690606094</v>
+        <v>6.5606181074633</v>
       </c>
       <c r="D4">
-        <v>7.44024619031098</v>
+        <v>4.92886277229949</v>
       </c>
       <c r="E4">
-        <v>11.41138837102974</v>
+        <v>5.978561355294645</v>
       </c>
       <c r="F4">
-        <v>40.42137160076845</v>
+        <v>42.64694231921492</v>
       </c>
       <c r="G4">
-        <v>58.01958400657601</v>
+        <v>67.98469160943236</v>
       </c>
       <c r="H4">
-        <v>20.62907484195075</v>
+        <v>17.59819569954594</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.241205883930579</v>
+        <v>5.056563001308354</v>
       </c>
       <c r="M4">
-        <v>28.59824295286601</v>
+        <v>34.63209711494288</v>
       </c>
       <c r="N4">
-        <v>16.76299461469746</v>
+        <v>16.49904862536086</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.48916393077421</v>
+        <v>6.554644448275517</v>
       </c>
       <c r="D5">
-        <v>7.446000449481871</v>
+        <v>4.885522542776385</v>
       </c>
       <c r="E5">
-        <v>11.42892709687017</v>
+        <v>6.032960895454698</v>
       </c>
       <c r="F5">
-        <v>40.28198847418093</v>
+        <v>41.81000620552761</v>
       </c>
       <c r="G5">
-        <v>57.72887320278308</v>
+        <v>66.55649624515519</v>
       </c>
       <c r="H5">
-        <v>20.6053974851434</v>
+        <v>17.31968040246091</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.244650616712297</v>
+        <v>5.060376682115673</v>
       </c>
       <c r="M5">
-        <v>28.38508346869886</v>
+        <v>33.8768497231544</v>
       </c>
       <c r="N5">
-        <v>16.7179780484048</v>
+        <v>16.3385464861178</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.49187981825253</v>
+        <v>6.553843742338263</v>
       </c>
       <c r="D6">
-        <v>7.446992590660664</v>
+        <v>4.878467678694931</v>
       </c>
       <c r="E6">
-        <v>11.43186661935711</v>
+        <v>6.042016342015735</v>
       </c>
       <c r="F6">
-        <v>40.25906213378909</v>
+        <v>41.6706786255666</v>
       </c>
       <c r="G6">
-        <v>57.68087544861616</v>
+        <v>66.31846439712983</v>
       </c>
       <c r="H6">
-        <v>20.60157577648938</v>
+        <v>17.27350826378408</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.24523194249573</v>
+        <v>5.061024110200136</v>
       </c>
       <c r="M6">
-        <v>28.3495984653523</v>
+        <v>33.75012549795747</v>
       </c>
       <c r="N6">
-        <v>16.71052720154735</v>
+        <v>16.31180409142027</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.47330061866043</v>
+        <v>6.560524525348538</v>
       </c>
       <c r="D7">
-        <v>7.440321333124284</v>
+        <v>4.928268661474487</v>
       </c>
       <c r="E7">
-        <v>11.41162308026629</v>
+        <v>5.979293556780468</v>
       </c>
       <c r="F7">
-        <v>40.41947730779496</v>
+        <v>42.63567882841527</v>
       </c>
       <c r="G7">
-        <v>58.01564524344451</v>
+        <v>67.96548921993889</v>
       </c>
       <c r="H7">
-        <v>20.62874815726554</v>
+        <v>17.59443450242035</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.241251715619519</v>
+        <v>5.056613488059341</v>
       </c>
       <c r="M7">
-        <v>28.5953744498604</v>
+        <v>34.6219994520267</v>
       </c>
       <c r="N7">
-        <v>16.76238591809111</v>
+        <v>16.49689028735983</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.39808127849035</v>
+        <v>6.620036486348295</v>
       </c>
       <c r="D8">
-        <v>7.416254016165416</v>
+        <v>5.169829216617575</v>
       </c>
       <c r="E8">
-        <v>11.3262362184176</v>
+        <v>5.705142669046123</v>
       </c>
       <c r="F8">
-        <v>41.15794926421987</v>
+        <v>46.84430761823422</v>
       </c>
       <c r="G8">
-        <v>59.52985605004546</v>
+        <v>75.11054533201205</v>
       </c>
       <c r="H8">
-        <v>20.76457563476161</v>
+        <v>19.02195643679123</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.22504053305787</v>
+        <v>5.03916340691913</v>
       </c>
       <c r="M8">
-        <v>29.66467698008979</v>
+        <v>38.28217628271865</v>
       </c>
       <c r="N8">
-        <v>16.99441112344212</v>
+        <v>17.29894045046463</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.27524237836686</v>
+        <v>6.868154108853086</v>
       </c>
       <c r="D9">
-        <v>7.388775602445202</v>
+        <v>5.735175839841369</v>
       </c>
       <c r="E9">
-        <v>11.17282170791407</v>
+        <v>5.169693845978224</v>
       </c>
       <c r="F9">
-        <v>42.7047843048516</v>
+        <v>55.39073137469276</v>
       </c>
       <c r="G9">
-        <v>62.60342879943907</v>
+        <v>88.95963566123953</v>
       </c>
       <c r="H9">
-        <v>21.08740957886812</v>
+        <v>22.19549976726925</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.198077980852789</v>
+        <v>5.011632053485898</v>
       </c>
       <c r="M9">
-        <v>31.68767647639156</v>
+        <v>44.83417491536877</v>
       </c>
       <c r="N9">
-        <v>17.45777380137307</v>
+        <v>18.80721932071691</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.20035619703844</v>
+        <v>7.155597314786766</v>
       </c>
       <c r="D10">
-        <v>7.380970609362561</v>
+        <v>6.367339791144598</v>
       </c>
       <c r="E10">
-        <v>11.06852073899712</v>
+        <v>4.76872381148759</v>
       </c>
       <c r="F10">
-        <v>43.89073325593697</v>
+        <v>61.66156501541551</v>
       </c>
       <c r="G10">
-        <v>64.89967585878045</v>
+        <v>99.0828711071771</v>
       </c>
       <c r="H10">
-        <v>21.35808615779806</v>
+        <v>24.69777016267745</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.18118006266927</v>
+        <v>4.994809186128462</v>
       </c>
       <c r="M10">
-        <v>33.11372186092327</v>
+        <v>49.3249956957179</v>
       </c>
       <c r="N10">
-        <v>17.80054858503573</v>
+        <v>19.8680007248396</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.1696969832157</v>
+        <v>7.315840427131634</v>
       </c>
       <c r="D11">
-        <v>7.380182280073917</v>
+        <v>6.707537976684844</v>
       </c>
       <c r="E11">
-        <v>11.0228678970385</v>
+        <v>4.582015568557806</v>
       </c>
       <c r="F11">
-        <v>44.4386643487431</v>
+        <v>64.53969228831471</v>
       </c>
       <c r="G11">
-        <v>65.94735690621984</v>
+        <v>103.7355483740239</v>
       </c>
       <c r="H11">
-        <v>21.48823577356381</v>
+        <v>25.84941705746367</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.174118170771855</v>
+        <v>4.987693965725539</v>
       </c>
       <c r="M11">
-        <v>33.74658417836842</v>
+        <v>51.31574182031835</v>
       </c>
       <c r="N11">
-        <v>17.95641638953925</v>
+        <v>20.33915525801097</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.15858320719366</v>
+        <v>7.381452022813398</v>
       </c>
       <c r="D12">
-        <v>7.380286590078088</v>
+        <v>6.838221341641759</v>
       </c>
       <c r="E12">
-        <v>11.00583599460683</v>
+        <v>4.510400255473159</v>
       </c>
       <c r="F12">
-        <v>44.6471693777734</v>
+        <v>65.63777589081992</v>
       </c>
       <c r="G12">
-        <v>66.34411907801265</v>
+        <v>105.5117198382351</v>
       </c>
       <c r="H12">
-        <v>21.53850315236689</v>
+        <v>26.28928529346219</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.171533344157647</v>
+        <v>4.985054605243257</v>
       </c>
       <c r="M12">
-        <v>33.98374746715153</v>
+        <v>52.06413291093498</v>
       </c>
       <c r="N12">
-        <v>18.015383087099</v>
+        <v>20.51587220530955</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.16095458744504</v>
+        <v>7.367089296905631</v>
       </c>
       <c r="D13">
-        <v>7.380246122028986</v>
+        <v>6.809980025500955</v>
       </c>
       <c r="E13">
-        <v>11.00949277567637</v>
+        <v>4.52587005004249</v>
       </c>
       <c r="F13">
-        <v>44.60222204979298</v>
+        <v>65.4008305294699</v>
       </c>
       <c r="G13">
-        <v>66.25867445089727</v>
+        <v>105.1284071967774</v>
       </c>
       <c r="H13">
-        <v>21.52763392113001</v>
+        <v>26.19434816003778</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.172086066942493</v>
+        <v>4.985621009658789</v>
       </c>
       <c r="M13">
-        <v>33.93278386463302</v>
+        <v>51.90315711528019</v>
       </c>
       <c r="N13">
-        <v>18.00268684624352</v>
+        <v>20.47788924218289</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.16877266505207</v>
+        <v>7.321134965776121</v>
       </c>
       <c r="D14">
-        <v>7.380182757016339</v>
+        <v>6.71824729871235</v>
       </c>
       <c r="E14">
-        <v>11.02146155726288</v>
+        <v>4.576144000480268</v>
       </c>
       <c r="F14">
-        <v>44.45579895646335</v>
+        <v>64.62983655983824</v>
       </c>
       <c r="G14">
-        <v>65.98000053362021</v>
+        <v>103.8813366815888</v>
       </c>
       <c r="H14">
-        <v>21.49235176975694</v>
+        <v>25.88551702487155</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.173903727669998</v>
+        <v>4.987475869674012</v>
       </c>
       <c r="M14">
-        <v>33.76614672860651</v>
+        <v>51.37740794696353</v>
       </c>
       <c r="N14">
-        <v>17.96126903062496</v>
+        <v>20.35372815365303</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.17362627244343</v>
+        <v>7.293652028549678</v>
       </c>
       <c r="D15">
-        <v>7.38019656758244</v>
+        <v>6.662325003189265</v>
       </c>
       <c r="E15">
-        <v>11.02882603470634</v>
+        <v>4.60680927871225</v>
       </c>
       <c r="F15">
-        <v>44.36623699274169</v>
+        <v>64.15880844741677</v>
       </c>
       <c r="G15">
-        <v>65.80929628168326</v>
+        <v>103.1195965395915</v>
       </c>
       <c r="H15">
-        <v>21.47086756175356</v>
+        <v>25.69690461983444</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.175028718850182</v>
+        <v>4.988618430686527</v>
       </c>
       <c r="M15">
-        <v>33.66374682948024</v>
+        <v>51.054731204718</v>
       </c>
       <c r="N15">
-        <v>17.93589058183993</v>
+        <v>20.27745337704931</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.20242893963608</v>
+        <v>7.145773986193412</v>
       </c>
       <c r="D16">
-        <v>7.381078198425432</v>
+        <v>6.345323851607104</v>
       </c>
       <c r="E16">
-        <v>11.07154017862658</v>
+        <v>4.780815603206486</v>
       </c>
       <c r="F16">
-        <v>43.85507748313351</v>
+        <v>61.47434063124334</v>
       </c>
       <c r="G16">
-        <v>64.83123372738342</v>
+        <v>98.78034919839301</v>
       </c>
       <c r="H16">
-        <v>21.34971956694471</v>
+        <v>24.62292025098905</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.181654106963322</v>
+        <v>4.995283220276782</v>
       </c>
       <c r="M16">
-        <v>33.07202555136449</v>
+        <v>49.19400723073455</v>
       </c>
       <c r="N16">
-        <v>17.79035687007953</v>
+        <v>19.83697448350276</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.22097547155113</v>
+        <v>7.063053433078764</v>
       </c>
       <c r="D17">
-        <v>7.382330605024216</v>
+        <v>6.153346532495536</v>
       </c>
       <c r="E17">
-        <v>11.09820192264313</v>
+        <v>4.886274052843333</v>
       </c>
       <c r="F17">
-        <v>43.54351720130379</v>
+        <v>59.83682889286138</v>
       </c>
       <c r="G17">
-        <v>64.23171586640323</v>
+        <v>96.13514058865481</v>
       </c>
       <c r="H17">
-        <v>21.27717839652876</v>
+        <v>23.96861899560495</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.185878288473159</v>
+        <v>4.99949535904423</v>
       </c>
       <c r="M17">
-        <v>32.70480876049022</v>
+        <v>48.04042946279212</v>
       </c>
       <c r="N17">
-        <v>17.70102617902899</v>
+        <v>19.56378325080128</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.23196323461273</v>
+        <v>7.018201428711528</v>
       </c>
       <c r="D18">
-        <v>7.383310626769458</v>
+        <v>6.043630273643846</v>
       </c>
       <c r="E18">
-        <v>11.11370606088363</v>
+        <v>4.946547109066795</v>
       </c>
       <c r="F18">
-        <v>43.36512185459198</v>
+        <v>58.89703326609727</v>
       </c>
       <c r="G18">
-        <v>63.88720539774423</v>
+        <v>94.61760080557899</v>
       </c>
       <c r="H18">
-        <v>21.23611690089419</v>
+        <v>23.59339939522926</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.188366790768132</v>
+        <v>5.001970282358839</v>
       </c>
       <c r="M18">
-        <v>32.49211437406295</v>
+        <v>47.37186306527101</v>
       </c>
       <c r="N18">
-        <v>17.64964249827717</v>
+        <v>19.4055796084481</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.23573832222688</v>
+        <v>7.003464932243768</v>
       </c>
       <c r="D19">
-        <v>7.383686868098563</v>
+        <v>6.006585181152765</v>
       </c>
       <c r="E19">
-        <v>11.11898458866517</v>
+        <v>4.966896362316052</v>
       </c>
       <c r="F19">
-        <v>43.30486472925415</v>
+        <v>58.5790724759601</v>
       </c>
       <c r="G19">
-        <v>63.77062747442373</v>
+        <v>94.10427001075287</v>
       </c>
       <c r="H19">
-        <v>21.22232869939103</v>
+        <v>23.46650147473312</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.189219480838226</v>
+        <v>5.002817808185269</v>
       </c>
       <c r="M19">
-        <v>32.41985202489531</v>
+        <v>47.14457621874596</v>
       </c>
       <c r="N19">
-        <v>17.63224582901911</v>
+        <v>19.35183288371092</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.21896796769746</v>
+        <v>7.071572451610382</v>
       </c>
       <c r="D20">
-        <v>7.382170367672735</v>
+        <v>6.173705588098666</v>
       </c>
       <c r="E20">
-        <v>11.09534625840392</v>
+        <v>4.875089436720912</v>
       </c>
       <c r="F20">
-        <v>43.57660135928571</v>
+        <v>60.01090354324054</v>
       </c>
       <c r="G20">
-        <v>64.29550591955892</v>
+        <v>96.41627588924074</v>
       </c>
       <c r="H20">
-        <v>21.2848321708701</v>
+        <v>24.03814337263193</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.185422528638579</v>
+        <v>4.999041709803252</v>
       </c>
       <c r="M20">
-        <v>32.74405446575027</v>
+        <v>48.16374047149394</v>
       </c>
       <c r="N20">
-        <v>17.71053624899562</v>
+        <v>19.5929763232738</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.16646278858275</v>
+        <v>7.334492719276192</v>
       </c>
       <c r="D21">
-        <v>7.380190392486736</v>
+        <v>6.745134261772251</v>
       </c>
       <c r="E21">
-        <v>11.0179391099356</v>
+        <v>4.561404841559074</v>
       </c>
       <c r="F21">
-        <v>44.49878097392759</v>
+        <v>64.85602994456235</v>
       </c>
       <c r="G21">
-        <v>66.06185629436338</v>
+        <v>104.2471713343327</v>
       </c>
       <c r="H21">
-        <v>21.5026885499364</v>
+        <v>25.97610821669551</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.173367415679314</v>
+        <v>4.98692976564803</v>
       </c>
       <c r="M21">
-        <v>33.81516117720754</v>
+        <v>51.53196207765976</v>
       </c>
       <c r="N21">
-        <v>17.97343637382503</v>
+        <v>20.39024371276215</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.13504287230498</v>
+        <v>7.535522608686897</v>
       </c>
       <c r="D22">
-        <v>7.381246809657621</v>
+        <v>7.129936814613004</v>
       </c>
       <c r="E22">
-        <v>10.96883926730091</v>
+        <v>4.350871914184895</v>
       </c>
       <c r="F22">
-        <v>45.10730770008772</v>
+        <v>68.07372164399985</v>
       </c>
       <c r="G22">
-        <v>67.21625239987461</v>
+        <v>109.453974173465</v>
       </c>
       <c r="H22">
-        <v>21.65078342203869</v>
+        <v>27.26598498220598</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.166009306518974</v>
+        <v>4.979319659101994</v>
       </c>
       <c r="M22">
-        <v>34.50060711889392</v>
+        <v>53.70291109180396</v>
       </c>
       <c r="N22">
-        <v>18.14490269235032</v>
+        <v>20.90139504503111</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.15154524660717</v>
+        <v>7.425282663460843</v>
       </c>
       <c r="D23">
-        <v>7.380466121469123</v>
+        <v>6.923225354779984</v>
       </c>
       <c r="E23">
-        <v>10.99490914293767</v>
+        <v>4.463862188795874</v>
       </c>
       <c r="F23">
-        <v>44.78205678331028</v>
+        <v>66.3497736810765</v>
       </c>
       <c r="G23">
-        <v>66.60026403031542</v>
+        <v>106.6636991067719</v>
       </c>
       <c r="H23">
-        <v>21.57122900429423</v>
+        <v>26.57463418802576</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.169889006686059</v>
+        <v>4.983362324285133</v>
       </c>
       <c r="M23">
-        <v>34.13616984170072</v>
+        <v>52.54616327224262</v>
       </c>
       <c r="N23">
-        <v>18.05343590806848</v>
+        <v>20.6295023746924</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.21987454800521</v>
+        <v>7.067712627247726</v>
       </c>
       <c r="D24">
-        <v>7.382242001578162</v>
+        <v>6.164499271462004</v>
       </c>
       <c r="E24">
-        <v>11.09663675600897</v>
+        <v>4.880147090755371</v>
       </c>
       <c r="F24">
-        <v>43.56164173880772</v>
+        <v>59.93219963189856</v>
       </c>
       <c r="G24">
-        <v>64.26666590513173</v>
+        <v>96.28916509937817</v>
       </c>
       <c r="H24">
-        <v>21.28136989348891</v>
+        <v>24.00670858262729</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.185628390845487</v>
+        <v>4.999246636978939</v>
       </c>
       <c r="M24">
-        <v>32.72631637701831</v>
+        <v>48.1080084018954</v>
       </c>
       <c r="N24">
-        <v>17.70623682454879</v>
+        <v>19.57978168850152</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.30579959966355</v>
+        <v>6.784553497594564</v>
       </c>
       <c r="D25">
-        <v>7.394060050458531</v>
+        <v>5.570952405407712</v>
       </c>
       <c r="E25">
-        <v>11.21283690495735</v>
+        <v>5.315126726214683</v>
       </c>
       <c r="F25">
-        <v>42.27684458667463</v>
+        <v>53.08077260013928</v>
       </c>
       <c r="G25">
-        <v>61.76344240946423</v>
+        <v>85.23555317050369</v>
       </c>
       <c r="H25">
-        <v>20.99411338191643</v>
+        <v>21.27642959486978</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.204858489139632</v>
+        <v>5.01842507004543</v>
       </c>
       <c r="M25">
-        <v>31.1499627952207</v>
+        <v>43.12337519975517</v>
       </c>
       <c r="N25">
-        <v>17.33181221798671</v>
+        <v>18.40702665353292</v>
       </c>
       <c r="O25">
         <v>0</v>
